--- a/games/games_Kész.xlsx
+++ b/games/games_Kész.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A0806B79-282D-4690-9791-7D1860503D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{929F8A85-ED3F-4ADB-A712-C3260B20451B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{A0806B79-282D-4690-9791-7D1860503D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB43047B-9900-4F60-981D-B85A0977C3AC}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1894">
   <si>
     <t>id</t>
   </si>
@@ -5599,12 +5599,6 @@
 A csapatok gyorsan megalakultak – és kezdetét vette a kaland. A cél: felfedni a Városliget 9 titkát, és megfejteni a végső üzenetet, mielőtt lemegy a nap. -Jól jegyezzétek meg mindegyik feladat megoldását a végén szükség lesz rá.-</t>
   </si>
   <si>
-    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a rét közepén újra összeértek. A 9 titokból összeállt az üzenet:
-„A barátság az, ami minden kalandnál tovább tart.”
-Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettetek.
-A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
-  </si>
-  <si>
     <t>#4 A Városligeti Küldetés – A Rejtélyes Térkép Nyomában - OK</t>
   </si>
   <si>
@@ -5859,13 +5853,292 @@
   </si>
   <si>
     <t>thumbnails\attila.png</t>
+  </si>
+  <si>
+    <t>47.443808785306835</t>
+  </si>
+  <si>
+    <t>19.212115593654556</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Az erdő mélyén egy különös fénycsóva villan, mintha lézerkard hasítaná ketté a sötétséget. A levegő vibrál, és egy mély hang szól: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Én vagyok az apád.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vajon felismered, melyik űreposzban hallottuk ezt először?</t>
+    </r>
+  </si>
+  <si>
+    <t>„Én vagyok az apád” – A Star Wars melyik részében hangzik el ez a híres mondat?</t>
+  </si>
+  <si>
+    <t>A második rész.</t>
+  </si>
+  <si>
+    <t>Azaz a 5.</t>
+  </si>
+  <si>
+    <t>A Birodalom visszavág;Birodalom visszavág</t>
+  </si>
+  <si>
+    <t>47.44284370757273</t>
+  </si>
+  <si>
+    <t>19.213789294974305</t>
+  </si>
+  <si>
+    <t>Az ösvény szélén egy pad áll, rajta egy doboz bonbon. Mysti szerint minden randi és minden kaland pont ilyen — sosem tudhatod, mi vár rád. De vajon ki mondta először ezt a híres mondatot?</t>
+  </si>
+  <si>
+    <t>Melyik filmben hangzik el: „Az élet olyan, mint egy doboz bonbon”?</t>
+  </si>
+  <si>
+    <t>Egy futó férfi mondja ezt.</t>
+  </si>
+  <si>
+    <t>Tom Hanks játssza.</t>
+  </si>
+  <si>
+    <t>Forrest Gump;Forest Gump</t>
+  </si>
+  <si>
+    <t>47.44173349973655</t>
+  </si>
+  <si>
+    <t>19.214819263261774</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A fák árnyékában egy apró, fénylő bagolyfigura ül. Az erdő mintha varázslattól pezsegne, és a levegőben halványan zeng egy hang: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Varázslatos napot, Potter!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Emlékszel, ki üdvözölte így a fiatal varázslót?</t>
+    </r>
+  </si>
+  <si>
+    <t>Ki mondja: „Varázslatos napot, Potter”?</t>
+  </si>
+  <si>
+    <t>Ő a varázslóiskola igazgatója.</t>
+  </si>
+  <si>
+    <t>Hosszú, fehér szakálla van.</t>
+  </si>
+  <si>
+    <t>Dumbledore</t>
+  </si>
+  <si>
+    <t>47.440630524950926</t>
+  </si>
+  <si>
+    <t>19.215516637508053</t>
+  </si>
+  <si>
+    <t>Egy rozsdás táblán villogó számokat látsz: 88, 1955, 2015… mintha valaki itt járt volna az időn túl. Vajon mi volt annak a legendás autónak a neve, amivel Marty McFly utazott?</t>
+  </si>
+  <si>
+    <t>Mi volt a neve az autós időgépnek a „Vissza a jövőbe” filmben?</t>
+  </si>
+  <si>
+    <t>Ezüst színű sportautó.</t>
+  </si>
+  <si>
+    <t>88 mérföld/óránál működik.</t>
+  </si>
+  <si>
+    <t>DeLorean</t>
+  </si>
+  <si>
+    <t>47.43962911992409</t>
+  </si>
+  <si>
+    <t>19.214787076688175</t>
+  </si>
+  <si>
+    <t>A fák között halkan susog a szél, mint a tenger hullámai. Mysti megáll, és szinte hallani véli a suttogást: „Ne engedd el.” De mi volt Jack utolsó szava Rose-hoz a híres hajó tragédiájában?</t>
+  </si>
+  <si>
+    <t>Mi volt Jack utolsó szava Rose-hoz a Titanicban?</t>
+  </si>
+  <si>
+    <t>Egyetlen szó volt.</t>
+  </si>
+  <si>
+    <t>A lány neve.</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>47.43907761335556</t>
+  </si>
+  <si>
+    <t>19.214443753860277</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gyalogút mentén apró kék kavicsok vezetnek tovább, mintha a tenger fenekét jelölnék. Mysti kuncog: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Csak ússz tovább!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — hallatszik a fejében egy ismerős hang. De melyik filmben biztatnak ezzel?</t>
+    </r>
+  </si>
+  <si>
+    <t>„Csak ússz tovább!” – melyik animációs film szlogenje?</t>
+  </si>
+  <si>
+    <t>Egy bohóchal szerepel benne.</t>
+  </si>
+  <si>
+    <t>Szenilla is benne van.</t>
+  </si>
+  <si>
+    <t>Némó nyomában;Némó</t>
+  </si>
+  <si>
+    <t>47.43818503129704</t>
+  </si>
+  <si>
+    <t>19.213778566091072</t>
+  </si>
+  <si>
+    <t>A fák közül fekete madár száll fel, a levegő hirtelen sűrűvé válik, mint a digitális kódok az égen. Mysti hátrapillant, és érzi, hogy ez nem a valóság. Emlékszel, milyen színű kabátban lépett be Neo a Mátrix világába?</t>
+  </si>
+  <si>
+    <t>Milyen színű volt Neo kabátja a Mátrixban?</t>
+  </si>
+  <si>
+    <t>A film komor, futurisztikus hangulatú.</t>
+  </si>
+  <si>
+    <t>A kabát színe olyan, mint a film tónusa.</t>
+  </si>
+  <si>
+    <t>Fekete</t>
+  </si>
+  <si>
+    <t>47.43716180883292</t>
+  </si>
+  <si>
+    <t>19.213081191764363</t>
+  </si>
+  <si>
+    <t>A leveleken halvány rózsaszín fény játszik, mintha egy ékkő ragyogna. Mysti megdörzsöli a szemét – nincs is itt párduc! Vagy mégis? Tudod, mi is valójában a „Rózsaszín párduc”?</t>
+  </si>
+  <si>
+    <t>A „Rózsaszín párduc” – mi ez valójában a filmben?</t>
+  </si>
+  <si>
+    <t>Nem élőlény, hanem valami más.</t>
+  </si>
+  <si>
+    <t>Egy drágakő.</t>
+  </si>
+  <si>
+    <t>Ékszer;gyémánt</t>
+  </si>
+  <si>
+    <t>47.436428849997945</t>
+  </si>
+  <si>
+    <t>19.21442229626966</t>
+  </si>
+  <si>
+    <t>Az út végén egy padon ül két szív alakú graffiti. Mysti felnéz az égre, és a felhők között egy felhőkarcoló sziluettje rajzolódik ki. Melyik városban találkoznak ott a szerelmesek?</t>
+  </si>
+  <si>
+    <t>A „Szerelem hullámhosszán” film fináléja melyik városban játszódik?</t>
+  </si>
+  <si>
+    <t>Egy híres felhőkarcoló tetején történik.</t>
+  </si>
+  <si>
+    <t>Az Empire State Building áll ott.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>47.43546365101761</t>
+  </si>
+  <si>
+    <t>19.216256927225103</t>
+  </si>
+  <si>
+    <t>Az erdei ösvényen egy kőbe szúrt fémkalapács áll. A játékosok próbálják megemelni, de meg se mozdul — csak az, aki méltó rá, képes felemelni. Vajon ki volt az, akinek ez a filmben sikerült? ⚡</t>
+  </si>
+  <si>
+    <t>Melyik Bosszúálló emeli meg Thor kalapácsát az „Ultron kora” című film végén?</t>
+  </si>
+  <si>
+    <t>Csak az tudja felemelni, aki méltó rá.</t>
+  </si>
+  <si>
+    <t>Egy piros-ezüst páncélos hős, mesterséges intelligenciával.</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>A nap lassan lebukott a fák mögött, amikor a csapatok a rét közepén újra összeértek. A 9 titokból összeállt az üzenet:
+„A barátság az, ami minden kalandnál tovább tart.”
+Nevetve, fáradtan, de büszkén néztek egymásra – mindannyian tudták, hogy most már nemcsak egy osztály, hanem egy igazi csapat lettek.
+A Városliget titka feltárult – de talán maradt benne még egy-két rejtély a következő kirándulásra is…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5902,6 +6175,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -5949,9 +6229,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5959,6 +6236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6180,9 +6460,9 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6341,7 +6621,7 @@
         <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1563</v>
@@ -6362,81 +6642,81 @@
         <v>10</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1740</v>
+        <v>1893</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>1742</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>1743</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>1744</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>1817</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>1818</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>1819</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>1821</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>1822</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="J8" s="13"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -7082,11 +7362,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14418,294 +14698,584 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A256" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B256" s="12">
+    <row r="256" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A256" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B256" s="11">
         <v>1</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="11" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D256" t="s">
         <v>1747</v>
       </c>
-      <c r="D256" t="s">
+      <c r="F256" t="s">
         <v>1748</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" s="13" t="s">
         <v>1749</v>
       </c>
-      <c r="G256" s="14" t="s">
+      <c r="H256" s="13" t="s">
         <v>1750</v>
       </c>
-      <c r="H256" s="14" t="s">
+      <c r="I256" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="I256" s="14" t="s">
+      <c r="J256" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="J256" s="14" t="s">
+    </row>
+    <row r="257" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A257" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B257" s="11">
+        <v>2</v>
+      </c>
+      <c r="C257" s="11" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A257" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B257" s="12">
+      <c r="D257" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G257" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H257" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I257" s="13" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J257" s="13" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A258" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B258" s="11">
+        <v>3</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I258" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J258" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A259" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B259" s="11">
+        <v>4</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G259" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H259" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J259" s="13" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A260" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B260" s="11">
+        <v>5</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G260" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H260" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J260" s="13" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A261" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B261" s="11">
+        <v>6</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H261" s="13" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I261" s="13" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J261" s="13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A262" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B262" s="11">
+        <v>7</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G262" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H262" s="13" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I262" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J262" s="13" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A263" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B263" s="11">
+        <v>8</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G263" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H263" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I263" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J263" s="13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A264" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B264" s="11">
+        <v>9</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G264" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H264" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I264" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J264" s="13" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A265" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B265" s="11">
+        <v>10</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G265" s="13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H265" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I265" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J265" s="13" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A266" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B266" s="11">
+        <v>1</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H266" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I266" s="13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J266" s="13" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A267" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B267" s="11">
         <v>2</v>
       </c>
-      <c r="C257" s="12" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G257" s="14" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H257" s="14" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I257" s="14" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J257" s="14" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A258" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B258" s="12">
+      <c r="C267" s="10" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H267" s="13" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I267" s="13" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J267" s="13" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A268" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B268" s="11">
         <v>3</v>
       </c>
-      <c r="C258" s="12" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D258" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G258" s="14" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H258" s="14" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I258" s="14" t="s">
-        <v>1766</v>
-      </c>
-      <c r="J258" s="14" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A259" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B259" s="12">
+      <c r="C268" s="10" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H268" s="13" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I268" s="13" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J268" s="13" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A269" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B269" s="11">
         <v>4</v>
       </c>
-      <c r="C259" s="12" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G259" s="14" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H259" s="14" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I259" s="14" t="s">
-        <v>1773</v>
-      </c>
-      <c r="J259" s="14" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A260" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B260" s="12">
+      <c r="C269" s="10" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G269" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H269" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I269" s="13" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J269" s="13" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A270" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B270" s="11">
         <v>5</v>
       </c>
-      <c r="C260" s="12" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G260" s="14" t="s">
-        <v>1778</v>
-      </c>
-      <c r="H260" s="14" t="s">
-        <v>1779</v>
-      </c>
-      <c r="I260" s="14" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J260" s="14" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A261" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B261" s="12">
+      <c r="C270" s="10" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G270" s="13" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H270" s="13" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J270" s="13" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A271" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B271" s="11">
         <v>6</v>
       </c>
-      <c r="C261" s="12" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G261" s="14" t="s">
-        <v>1785</v>
-      </c>
-      <c r="H261" s="14" t="s">
-        <v>1786</v>
-      </c>
-      <c r="I261" s="14" t="s">
-        <v>1787</v>
-      </c>
-      <c r="J261" s="14" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A262" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B262" s="12">
+      <c r="C271" s="10" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G271" s="13" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H271" s="13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I271" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J271" s="13" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A272" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B272" s="11">
         <v>7</v>
       </c>
-      <c r="C262" s="12" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G262" s="14" t="s">
-        <v>1792</v>
-      </c>
-      <c r="H262" s="14" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I262" s="14" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J262" s="14" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A263" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B263" s="12">
+      <c r="C272" s="10" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G272" s="13" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H272" s="13" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I272" s="13" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J272" s="13" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A273" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B273" s="11">
         <v>8</v>
       </c>
-      <c r="C263" s="12" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1798</v>
-      </c>
-      <c r="G263" s="14" t="s">
-        <v>1799</v>
-      </c>
-      <c r="H263" s="14" t="s">
-        <v>1800</v>
-      </c>
-      <c r="I263" s="14" t="s">
-        <v>1801</v>
-      </c>
-      <c r="J263" s="14" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A264" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B264" s="12">
+      <c r="C273" s="10" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G273" s="13" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H273" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I273" s="13" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J273" s="13" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A274" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B274" s="11">
         <v>9</v>
       </c>
-      <c r="C264" s="12" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1805</v>
-      </c>
-      <c r="G264" s="14" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H264" s="14" t="s">
-        <v>1807</v>
-      </c>
-      <c r="I264" s="14" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J264" s="14" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A265" s="11" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B265" s="12">
+      <c r="C274" s="10" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H274" s="13" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I274" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J274" s="13" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A275" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B275" s="11">
         <v>10</v>
       </c>
-      <c r="C265" s="12" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G265" s="14" t="s">
-        <v>1813</v>
-      </c>
-      <c r="H265" s="14" t="s">
-        <v>1814</v>
-      </c>
-      <c r="I265" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="J265" s="14" t="s">
-        <v>1816</v>
+      <c r="C275" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H275" s="13" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I275" s="13" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J275" s="13" t="s">
+        <v>1892</v>
       </c>
     </row>
   </sheetData>
@@ -15050,7 +15620,7 @@
       <c r="D28" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="14" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -15064,7 +15634,7 @@
       <c r="D29" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="26.4">
       <c r="A30" t="s">
@@ -15076,7 +15646,7 @@
       <c r="D30" s="4" t="s">
         <v>1603</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
@@ -15088,7 +15658,7 @@
       <c r="D31" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="39.6">
       <c r="A32" t="s">
